--- a/cases/demos/D5 - multi hub net cen micro.xlsx
+++ b/cases/demos/D5 - multi hub net cen micro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="2160" windowHeight="1215"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="2160" windowHeight="1215" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rev:</t>
         </r>
@@ -1061,7 +1061,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - pre-installed capacity (if any)</t>
@@ -1756,7 +1756,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1872,19 +1872,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2007,6 +1994,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2348,11 +2336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112732800"/>
-        <c:axId val="112734592"/>
+        <c:axId val="193445248"/>
+        <c:axId val="193447808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112732800"/>
+        <c:axId val="193445248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,12 +2350,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112734592"/>
+        <c:crossAx val="193447808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112734592"/>
+        <c:axId val="193447808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,13 +2366,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112732800"/>
+        <c:crossAx val="193445248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2414,6 +2403,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2755,11 +2745,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112768128"/>
-        <c:axId val="112769664"/>
+        <c:axId val="240745856"/>
+        <c:axId val="255068032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112768128"/>
+        <c:axId val="240745856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,12 +2759,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112769664"/>
+        <c:crossAx val="255068032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112769664"/>
+        <c:axId val="255068032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,13 +2775,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112768128"/>
+        <c:crossAx val="240745856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3163,8 +3154,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3238,7 +3229,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3451,7 +3444,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3486,7 +3479,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B26"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5610,8 +5603,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
